--- a/biology/Zoologie/Cethegus_colemani/Cethegus_colemani.xlsx
+++ b/biology/Zoologie/Cethegus_colemani/Cethegus_colemani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cethegus colemani est une espèce d'araignées mygalomorphes de la famille des Euagridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cethegus colemani est une espèce d'araignées mygalomorphes de la famille des Euagridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre vers Mareeba et Cairns[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre vers Mareeba et Cairns.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 7,00 mm de long sur 6,25 mm et l'abdomen 7,20 mm de long sur 4,80 mm et la carapace de la femelle paratype mesure 8,50 mm de long sur 7,25 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 7,00 mm de long sur 6,25 mm et l'abdomen 7,20 mm de long sur 4,80 mm et la carapace de la femelle paratype mesure 8,50 mm de long sur 7,25 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Clyde Coleman[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Clyde Coleman.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven, 1984 : Systematics of the Australian curtain-web spiders (Ischnothelinae: Dipluridae: Chelicerata). Australian Journal of Zoology Supplementary Series, no 93, p. 1-102.</t>
         </is>
